--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.2.1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2952324621892468</v>
+        <v>0.281496198452983</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.29523246218924676, 'ngram_match_score': 0.08241737011067697, 'weighted_ngram_match_score': 0.13027523643646508, 'syntax_match_score': 0.5616438356164384, 'dataflow_match_score': 0.4065934065934066}</t>
+          <t>{'codebleu': 0.281496198452983, 'ngram_match_score': 0.08241737011067697, 'weighted_ngram_match_score': 0.13027523643646508, 'syntax_match_score': 0.5616438356164384, 'dataflow_match_score': 0.3516483516483517}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.2.1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.281496198452983</v>
+        <v>0.2979797149364995</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.281496198452983, 'ngram_match_score': 0.08241737011067697, 'weighted_ngram_match_score': 0.13027523643646508, 'syntax_match_score': 0.5616438356164384, 'dataflow_match_score': 0.3516483516483517}</t>
+          <t>{'codebleu': 0.2979797149364995, 'ngram_match_score': 0.08241737011067697, 'weighted_ngram_match_score': 0.13027523643646508, 'syntax_match_score': 0.5616438356164384, 'dataflow_match_score': 0.4175824175824176}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
